--- a/data/trans_bre/LAWTONB_2R3-Edad-trans_bre.xlsx
+++ b/data/trans_bre/LAWTONB_2R3-Edad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>3.181015317785484</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3.069650627576805</v>
+        <v>3.069650627576803</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5492064476988314</v>
@@ -649,7 +649,7 @@
         <v>0.497807211695962</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.4400494806669779</v>
+        <v>0.4400494806669777</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.875573052736958</v>
+        <v>-0.4611288217871038</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.534098749563993</v>
+        <v>-3.077184434989157</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.09585482956594</v>
+        <v>-0.767367900815623</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.06395901381952382</v>
+        <v>0.003278225907629739</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1372475233525366</v>
+        <v>-0.07483412690436571</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.2951620766588963</v>
+        <v>-0.2616266605368491</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1753161165536725</v>
+        <v>-0.08920349775454318</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.03130720346759367</v>
+        <v>-0.001963528490328482</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.57844434555898</v>
+        <v>7.54934879122757</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.675856314284712</v>
+        <v>6.63960168867823</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.287527474289774</v>
+        <v>7.000065802126146</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.982128579425678</v>
+        <v>5.722258805370436</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.745716705949826</v>
+        <v>1.780391070215436</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.040255072629916</v>
+        <v>0.9149876770074553</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.521741190063637</v>
+        <v>1.565333573487648</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.049774510824199</v>
+        <v>1.045352872014955</v>
       </c>
     </row>
     <row r="7">
@@ -749,7 +749,7 @@
         <v>0.3958450482461104</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.6492872806716332</v>
+        <v>0.6492872806716333</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.20709170615753</v>
+        <v>-2.428781967605819</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-3.412895612385074</v>
+        <v>-3.150354369305146</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.081528735654982</v>
+        <v>2.875862753692951</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>12.71926658686568</v>
+        <v>12.57110627647486</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.05028448997895156</v>
+        <v>-0.09830645144844094</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.08827276855567263</v>
+        <v>-0.07760147405784237</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1003277756359394</v>
+        <v>0.09712200433719634</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.4129151511624066</v>
+        <v>0.3950613609096015</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>12.87403596338673</v>
+        <v>12.98884088700711</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>12.45600270677725</v>
+        <v>13.41693642330683</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>17.99147591346033</v>
+        <v>17.53139626213184</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>23.10468726898645</v>
+        <v>23.37158094960389</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7203533571067485</v>
+        <v>0.7274699813951435</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4150403802637317</v>
+        <v>0.4600786577073528</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8001720238926547</v>
+        <v>0.790941126228583</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.9325379355352726</v>
+        <v>0.9231719436257892</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.438523573247353</v>
+        <v>1.270482358441453</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2486888316619936</v>
+        <v>0.5365458909883117</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.927929674900042</v>
+        <v>4.095298797062812</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9.160147893858351</v>
+        <v>9.247453928240168</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.09513698175247624</v>
+        <v>0.06457120237403928</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-5.956334141764177e-05</v>
+        <v>0.02401566151744887</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2228227702023939</v>
+        <v>0.2398049263700064</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.5143355594510063</v>
+        <v>0.516864225768322</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.820528045449372</v>
+        <v>9.954366500011009</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.25105678351329</v>
+        <v>10.22998309355016</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12.80402596940563</v>
+        <v>13.04206810176698</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15.50158113595875</v>
+        <v>15.61704906035429</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.911057014602488</v>
+        <v>0.9146275069533906</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5538921736061692</v>
+        <v>0.5769737194381845</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.004796323488993</v>
+        <v>0.991315759589659</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.076004491323109</v>
+        <v>1.110719988764022</v>
       </c>
     </row>
     <row r="13">
